--- a/docs/Naceňovací dokument_processed.xlsx
+++ b/docs/Naceňovací dokument_processed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="2" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Nacenění" sheetId="1" r:id="rId4"/>
@@ -18,6 +18,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={5EF978CB-C16C-4D26-AC83-6611C261743F}</author>
+    <author>tc={756D0C1A-254A-44A0-B576-412E31DA03FC}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Jasně definovat, co se tím myslí, případně potom rozpadnout na konkrétní části.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="1">
+      <text>
+        <r>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Např. nastavení TS na projektu nebo jiné části, která se nenachází ve vzorových řešeních.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
@@ -290,7 +321,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -300,13 +351,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -321,13 +394,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6666"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
@@ -624,7 +744,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -644,7 +764,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -653,7 +773,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -703,27 +823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="J1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -735,9 +855,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" customHeight="1" ht="15.75">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -747,7 +867,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -759,7 +879,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -771,7 +891,7 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="H5"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -783,7 +903,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="H6"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -792,7 +912,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="H7"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -801,7 +921,7 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="H8"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -810,7 +930,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="H9"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -819,19 +939,19 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="H10"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -843,7 +963,7 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -855,7 +975,7 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -867,7 +987,7 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="H14"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -879,7 +999,7 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -891,7 +1011,7 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
@@ -903,7 +1023,7 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="H17"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -915,7 +1035,7 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="H18"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
@@ -924,7 +1044,7 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="H19"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
@@ -933,7 +1053,7 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="H20"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
@@ -942,7 +1062,7 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="H21"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
@@ -960,7 +1080,7 @@
       <c r="F22" t="s">
         <v>41</v>
       </c>
-      <c r="H22"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -969,247 +1089,247 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="H23"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="H25"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="H27"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="H28"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="H29"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="H30"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="H31"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="H32"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="H33"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="H34"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="H35"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="H36"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="H37"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="H38"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="H39"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="H40"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="H41"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="H42"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="H43"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="H44"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="H45"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="H46"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="H47"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="H48"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="H49"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="H50"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="H51"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="H52"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="H53"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="H54"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="H55"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="H56"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="H57"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="H58"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="H59"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="H60"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="H61"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="H62"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="H63"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="H64"/>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="H65"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="H66"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="H67"/>
+      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="H68"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="H69"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="H70"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="H71"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="H72"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="H73"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="H74"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="H75"/>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="H76"/>
+      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="H77"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="H78"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="H79"/>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="H80"/>
+      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="H81"/>
+      <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="H82"/>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="H83"/>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="H84"/>
+      <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="H85"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="H86"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="H87"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="H88"/>
+      <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="H89"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="H90"/>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="H91"/>
+      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="H92"/>
+      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="H93"/>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="H94"/>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="H95"/>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="H96"/>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="H97"/>
+      <c r="H97" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1223,6 +1343,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId_comments_vml1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
@@ -1234,8 +1355,8 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,47 +1377,47 @@
     <col min="14" max="14" width="17.77734375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" customHeight="1" ht="17.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1311,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -1331,16 +1452,16 @@
         <f>IF(OR(F2="",E2="",H2=""), "", ((F2+G2)*VLOOKUP(E2, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE)))</f>
         <v>6.03</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f>IF(OR(F2="",E2="",H2=""), "", ((F2+G2+H2)*VLOOKUP(E2, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE)))</f>
         <v>7.974</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>9</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="s">
+      <c r="N2" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1355,7 +1476,7 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -1369,11 +1490,11 @@
         <v>3.24</v>
       </c>
       <c r="I3"/>
-      <c r="J3">
+      <c r="J3" s="1">
         <f>IF(OR(F3="",E3="",H3=""), "", ((F3+H3)*VLOOKUP(E3, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE)))</f>
         <v>13.24</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f>J3</f>
         <v>13.24</v>
       </c>
@@ -1392,7 +1513,7 @@
         <v>56</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -1406,11 +1527,11 @@
         <v>2.592</v>
       </c>
       <c r="I4"/>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>IF(OR(F4="",E4="",H4=""), "", (F4*VLOOKUP(E4, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H4)</f>
         <v>10.592</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>11</v>
       </c>
       <c r="L4"/>
@@ -1428,7 +1549,7 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -1442,11 +1563,11 @@
         <v>3.888</v>
       </c>
       <c r="I5"/>
-      <c r="J5">
+      <c r="J5" s="1">
         <f>IF(OR(F5="",E5="",H5=""), "", (F5*VLOOKUP(E5, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H5)</f>
         <v>15.888</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>20</v>
       </c>
       <c r="L5"/>
@@ -1464,7 +1585,7 @@
         <v>65</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
@@ -1478,11 +1599,11 @@
         <v>5.184</v>
       </c>
       <c r="I6"/>
-      <c r="J6">
+      <c r="J6" s="1">
         <f>IF(OR(F6="",E6="",H6=""), "", (F6*VLOOKUP(E6, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H6)</f>
         <v>21.184</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f>J6</f>
         <v>21.184</v>
       </c>
@@ -1490,7 +1611,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" customHeight="1" ht="15.75">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1501,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -1515,11 +1636,11 @@
         <v>1.296</v>
       </c>
       <c r="I7"/>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>IF(OR(F7="",E7="",H7=""), "", (F7*VLOOKUP(E7, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H7)</f>
         <v>5.296</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f>J7</f>
         <v>5.296</v>
       </c>
@@ -1536,11 +1657,11 @@
         <f>F8*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="1" t="str">
         <f>IF(OR(F8="",E8="",H8=""), "", (F8*VLOOKUP(E8, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H8)</f>
         <v/>
       </c>
-      <c r="K8"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9"/>
@@ -1551,11 +1672,11 @@
         <f>F9*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="1" t="str">
         <f>IF(OR(F9="",E9="",H9=""), "", (F9*VLOOKUP(E9, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H9)</f>
         <v/>
       </c>
-      <c r="K9"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10"/>
@@ -1566,11 +1687,11 @@
         <f>F10*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="1" t="str">
         <f>IF(OR(F10="",E10="",H10=""), "", (F10*VLOOKUP(E10, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H10)</f>
         <v/>
       </c>
-      <c r="K10"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11"/>
@@ -1581,11 +1702,11 @@
         <f>F11*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="1" t="str">
         <f>IF(OR(F11="",E11="",H11=""), "", (F11*VLOOKUP(E11, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H11)</f>
         <v/>
       </c>
-      <c r="K11"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12"/>
@@ -1596,11 +1717,11 @@
         <f>F12*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <f>IF(OR(F12="",E12="",H12=""), "", (F12*VLOOKUP(E12, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H12)</f>
         <v/>
       </c>
-      <c r="K12"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13"/>
@@ -1611,11 +1732,11 @@
         <f>F13*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="1" t="str">
         <f>IF(OR(F13="",E13="",H13=""), "", (F13*VLOOKUP(E13, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H13)</f>
         <v/>
       </c>
-      <c r="K13"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14"/>
@@ -1626,11 +1747,11 @@
         <f>F14*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="1" t="str">
         <f>IF(OR(F14="",E14="",H14=""), "", (F14*VLOOKUP(E14, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H14)</f>
         <v/>
       </c>
-      <c r="K14"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15"/>
@@ -1641,11 +1762,11 @@
         <f>F15*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="1" t="str">
         <f>IF(OR(F15="",E15="",H15=""), "", (F15*VLOOKUP(E15, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H15)</f>
         <v/>
       </c>
-      <c r="K15"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16"/>
@@ -1656,11 +1777,11 @@
         <f>F16*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="1" t="str">
         <f>IF(OR(F16="",E16="",H16=""), "", (F16*VLOOKUP(E16, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H16)</f>
         <v/>
       </c>
-      <c r="K16"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17"/>
@@ -1671,11 +1792,11 @@
         <f>F17*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="1" t="str">
         <f>IF(OR(F17="",E17="",H17=""), "", (F17*VLOOKUP(E17, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H17)</f>
         <v/>
       </c>
-      <c r="K17"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18"/>
@@ -1686,11 +1807,11 @@
         <f>F18*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="1" t="str">
         <f>IF(OR(F18="",E18="",H18=""), "", (F18*VLOOKUP(E18, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H18)</f>
         <v/>
       </c>
-      <c r="K18"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19"/>
@@ -1701,11 +1822,11 @@
         <f>F19*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="1" t="str">
         <f>IF(OR(F19="",E19="",H19=""), "", (F19*VLOOKUP(E19, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H19)</f>
         <v/>
       </c>
-      <c r="K19"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20"/>
@@ -1716,11 +1837,11 @@
         <f>F20*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="1" t="str">
         <f>IF(OR(F20="",E20="",H20=""), "", (F20*VLOOKUP(E20, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H20)</f>
         <v/>
       </c>
-      <c r="K20"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21"/>
@@ -1731,11 +1852,11 @@
         <f>F21*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="1" t="str">
         <f>IF(OR(F21="",E21="",H21=""), "", (F21*VLOOKUP(E21, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H21)</f>
         <v/>
       </c>
-      <c r="K21"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22"/>
@@ -1746,11 +1867,11 @@
         <f>F22*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="1" t="str">
         <f>IF(OR(F22="",E22="",H22=""), "", (F22*VLOOKUP(E22, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H22)</f>
         <v/>
       </c>
-      <c r="K22"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23"/>
@@ -1761,11 +1882,11 @@
         <f>F23*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="1" t="str">
         <f>IF(OR(F23="",E23="",H23=""), "", (F23*VLOOKUP(E23, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H23)</f>
         <v/>
       </c>
-      <c r="K23"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24"/>
@@ -1776,11 +1897,11 @@
         <f>F24*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="1" t="str">
         <f>IF(OR(F24="",E24="",H24=""), "", (F24*VLOOKUP(E24, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H24)</f>
         <v/>
       </c>
-      <c r="K24"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25"/>
@@ -1791,11 +1912,11 @@
         <f>F25*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="1" t="str">
         <f>IF(OR(F25="",E25="",H25=""), "", (F25*VLOOKUP(E25, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H25)</f>
         <v/>
       </c>
-      <c r="K25"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26"/>
@@ -1806,11 +1927,11 @@
         <f>F26*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="1" t="str">
         <f>IF(OR(F26="",E26="",H26=""), "", (F26*VLOOKUP(E26, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H26)</f>
         <v/>
       </c>
-      <c r="K26"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27"/>
@@ -1821,11 +1942,11 @@
         <f>F27*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="1" t="str">
         <f>IF(OR(F27="",E27="",H27=""), "", (F27*VLOOKUP(E27, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H27)</f>
         <v/>
       </c>
-      <c r="K27"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28"/>
@@ -1836,11 +1957,11 @@
         <f>F28*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="1" t="str">
         <f>IF(OR(F28="",E28="",H28=""), "", (F28*VLOOKUP(E28, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H28)</f>
         <v/>
       </c>
-      <c r="K28"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29"/>
@@ -1851,11 +1972,11 @@
         <f>F29*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="1" t="str">
         <f>IF(OR(F29="",E29="",H29=""), "", (F29*VLOOKUP(E29, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H29)</f>
         <v/>
       </c>
-      <c r="K29"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30"/>
@@ -1866,11 +1987,11 @@
         <f>F30*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="1" t="str">
         <f>IF(OR(F30="",E30="",H30=""), "", (F30*VLOOKUP(E30, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H30)</f>
         <v/>
       </c>
-      <c r="K30"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31"/>
@@ -1881,11 +2002,11 @@
         <f>F31*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="1" t="str">
         <f>IF(OR(F31="",E31="",H31=""), "", (F31*VLOOKUP(E31, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H31)</f>
         <v/>
       </c>
-      <c r="K31"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32"/>
@@ -1896,11 +2017,11 @@
         <f>F32*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="1" t="str">
         <f>IF(OR(F32="",E32="",H32=""), "", (F32*VLOOKUP(E32, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H32)</f>
         <v/>
       </c>
-      <c r="K32"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33"/>
@@ -1911,11 +2032,11 @@
         <f>F33*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="1" t="str">
         <f>IF(OR(F33="",E33="",H33=""), "", (F33*VLOOKUP(E33, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H33)</f>
         <v/>
       </c>
-      <c r="K33"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34"/>
@@ -1926,11 +2047,11 @@
         <f>F34*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="1" t="str">
         <f>IF(OR(F34="",E34="",H34=""), "", (F34*VLOOKUP(E34, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H34)</f>
         <v/>
       </c>
-      <c r="K34"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35"/>
@@ -1941,11 +2062,11 @@
         <f>F35*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="1" t="str">
         <f>IF(OR(F35="",E35="",H35=""), "", (F35*VLOOKUP(E35, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H35)</f>
         <v/>
       </c>
-      <c r="K35"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36"/>
@@ -1956,11 +2077,11 @@
         <f>F36*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="1" t="str">
         <f>IF(OR(F36="",E36="",H36=""), "", (F36*VLOOKUP(E36, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H36)</f>
         <v/>
       </c>
-      <c r="K36"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37"/>
@@ -1971,11 +2092,11 @@
         <f>F37*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="1" t="str">
         <f>IF(OR(F37="",E37="",H37=""), "", (F37*VLOOKUP(E37, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H37)</f>
         <v/>
       </c>
-      <c r="K37"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38"/>
@@ -1986,11 +2107,11 @@
         <f>F38*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="1" t="str">
         <f>IF(OR(F38="",E38="",H38=""), "", (F38*VLOOKUP(E38, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H38)</f>
         <v/>
       </c>
-      <c r="K38"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39"/>
@@ -2001,11 +2122,11 @@
         <f>F39*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="1" t="str">
         <f>IF(OR(F39="",E39="",H39=""), "", (F39*VLOOKUP(E39, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H39)</f>
         <v/>
       </c>
-      <c r="K39"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40"/>
@@ -2016,11 +2137,11 @@
         <f>F40*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="1" t="str">
         <f>IF(OR(F40="",E40="",H40=""), "", (F40*VLOOKUP(E40, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H40)</f>
         <v/>
       </c>
-      <c r="K40"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41"/>
@@ -2031,11 +2152,11 @@
         <f>F41*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="1" t="str">
         <f>IF(OR(F41="",E41="",H41=""), "", (F41*VLOOKUP(E41, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H41)</f>
         <v/>
       </c>
-      <c r="K41"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42"/>
@@ -2046,11 +2167,11 @@
         <f>F42*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="1" t="str">
         <f>IF(OR(F42="",E42="",H42=""), "", (F42*VLOOKUP(E42, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H42)</f>
         <v/>
       </c>
-      <c r="K42"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43"/>
@@ -2061,11 +2182,11 @@
         <f>F43*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="1" t="str">
         <f>IF(OR(F43="",E43="",H43=""), "", (F43*VLOOKUP(E43, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H43)</f>
         <v/>
       </c>
-      <c r="K43"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44"/>
@@ -2076,11 +2197,11 @@
         <f>F44*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="1" t="str">
         <f>IF(OR(F44="",E44="",H44=""), "", (F44*VLOOKUP(E44, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H44)</f>
         <v/>
       </c>
-      <c r="K44"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45"/>
@@ -2091,11 +2212,11 @@
         <f>F45*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="1" t="str">
         <f>IF(OR(F45="",E45="",H45=""), "", (F45*VLOOKUP(E45, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H45)</f>
         <v/>
       </c>
-      <c r="K45"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46"/>
@@ -2106,11 +2227,11 @@
         <f>F46*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="1" t="str">
         <f>IF(OR(F46="",E46="",H46=""), "", (F46*VLOOKUP(E46, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H46)</f>
         <v/>
       </c>
-      <c r="K46"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47"/>
@@ -2121,11 +2242,11 @@
         <f>F47*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="1" t="str">
         <f>IF(OR(F47="",E47="",H47=""), "", (F47*VLOOKUP(E47, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H47)</f>
         <v/>
       </c>
-      <c r="K47"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48"/>
@@ -2136,11 +2257,11 @@
         <f>F48*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="1" t="str">
         <f>IF(OR(F48="",E48="",H48=""), "", (F48*VLOOKUP(E48, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H48)</f>
         <v/>
       </c>
-      <c r="K48"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49"/>
@@ -2151,11 +2272,11 @@
         <f>F49*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" s="1" t="str">
         <f>IF(OR(F49="",E49="",H49=""), "", (F49*VLOOKUP(E49, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H49)</f>
         <v/>
       </c>
-      <c r="K49"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50"/>
@@ -2166,11 +2287,11 @@
         <f>F50*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" s="1" t="str">
         <f>IF(OR(F50="",E50="",H50=""), "", (F50*VLOOKUP(E50, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H50)</f>
         <v/>
       </c>
-      <c r="K50"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51"/>
@@ -2181,11 +2302,11 @@
         <f>F51*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" s="1" t="str">
         <f>IF(OR(F51="",E51="",H51=""), "", (F51*VLOOKUP(E51, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H51)</f>
         <v/>
       </c>
-      <c r="K51"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52"/>
@@ -2196,11 +2317,11 @@
         <f>F52*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" s="1" t="str">
         <f>IF(OR(F52="",E52="",H52=""), "", (F52*VLOOKUP(E52, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H52)</f>
         <v/>
       </c>
-      <c r="K52"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53"/>
@@ -2211,11 +2332,11 @@
         <f>F53*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" s="1" t="str">
         <f>IF(OR(F53="",E53="",H53=""), "", (F53*VLOOKUP(E53, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H53)</f>
         <v/>
       </c>
-      <c r="K53"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54"/>
@@ -2226,11 +2347,11 @@
         <f>F54*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" s="1" t="str">
         <f>IF(OR(F54="",E54="",H54=""), "", (F54*VLOOKUP(E54, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H54)</f>
         <v/>
       </c>
-      <c r="K54"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55"/>
@@ -2241,11 +2362,11 @@
         <f>F55*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" s="1" t="str">
         <f>IF(OR(F55="",E55="",H55=""), "", (F55*VLOOKUP(E55, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H55)</f>
         <v/>
       </c>
-      <c r="K55"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56"/>
@@ -2256,11 +2377,11 @@
         <f>F56*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" s="1" t="str">
         <f>IF(OR(F56="",E56="",H56=""), "", (F56*VLOOKUP(E56, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H56)</f>
         <v/>
       </c>
-      <c r="K56"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57"/>
@@ -2271,11 +2392,11 @@
         <f>F57*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" s="1" t="str">
         <f>IF(OR(F57="",E57="",H57=""), "", (F57*VLOOKUP(E57, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H57)</f>
         <v/>
       </c>
-      <c r="K57"/>
+      <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58"/>
@@ -2286,11 +2407,11 @@
         <f>F58*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" s="1" t="str">
         <f>IF(OR(F58="",E58="",H58=""), "", (F58*VLOOKUP(E58, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H58)</f>
         <v/>
       </c>
-      <c r="K58"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59"/>
@@ -2301,11 +2422,11 @@
         <f>F59*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" s="1" t="str">
         <f>IF(OR(F59="",E59="",H59=""), "", (F59*VLOOKUP(E59, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H59)</f>
         <v/>
       </c>
-      <c r="K59"/>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60"/>
@@ -2316,11 +2437,11 @@
         <f>F60*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" s="1" t="str">
         <f>IF(OR(F60="",E60="",H60=""), "", (F60*VLOOKUP(E60, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H60)</f>
         <v/>
       </c>
-      <c r="K60"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61"/>
@@ -2331,11 +2452,11 @@
         <f>F61*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" s="1" t="str">
         <f>IF(OR(F61="",E61="",H61=""), "", (F61*VLOOKUP(E61, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H61)</f>
         <v/>
       </c>
-      <c r="K61"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62"/>
@@ -2346,11 +2467,11 @@
         <f>F62*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" s="1" t="str">
         <f>IF(OR(F62="",E62="",H62=""), "", (F62*VLOOKUP(E62, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H62)</f>
         <v/>
       </c>
-      <c r="K62"/>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63"/>
@@ -2361,11 +2482,11 @@
         <f>F63*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" s="1" t="str">
         <f>IF(OR(F63="",E63="",H63=""), "", (F63*VLOOKUP(E63, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H63)</f>
         <v/>
       </c>
-      <c r="K63"/>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64"/>
@@ -2376,11 +2497,11 @@
         <f>F64*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" s="1" t="str">
         <f>IF(OR(F64="",E64="",H64=""), "", (F64*VLOOKUP(E64, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H64)</f>
         <v/>
       </c>
-      <c r="K64"/>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65"/>
@@ -2391,11 +2512,11 @@
         <f>F65*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" s="1" t="str">
         <f>IF(OR(F65="",E65="",H65=""), "", (F65*VLOOKUP(E65, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H65)</f>
         <v/>
       </c>
-      <c r="K65"/>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66"/>
@@ -2406,11 +2527,11 @@
         <f>F66*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" s="1" t="str">
         <f>IF(OR(F66="",E66="",H66=""), "", (F66*VLOOKUP(E66, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H66)</f>
         <v/>
       </c>
-      <c r="K66"/>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67"/>
@@ -2421,11 +2542,11 @@
         <f>F67*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J67" t="str">
+      <c r="J67" s="1" t="str">
         <f>IF(OR(F67="",E67="",H67=""), "", (F67*VLOOKUP(E67, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H67)</f>
         <v/>
       </c>
-      <c r="K67"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68"/>
@@ -2436,11 +2557,11 @@
         <f>F68*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" s="1" t="str">
         <f>IF(OR(F68="",E68="",H68=""), "", (F68*VLOOKUP(E68, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H68)</f>
         <v/>
       </c>
-      <c r="K68"/>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69"/>
@@ -2451,11 +2572,11 @@
         <f>F69*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" s="1" t="str">
         <f>IF(OR(F69="",E69="",H69=""), "", (F69*VLOOKUP(E69, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H69)</f>
         <v/>
       </c>
-      <c r="K69"/>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70"/>
@@ -2466,11 +2587,11 @@
         <f>F70*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" s="1" t="str">
         <f>IF(OR(F70="",E70="",H70=""), "", (F70*VLOOKUP(E70, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H70)</f>
         <v/>
       </c>
-      <c r="K70"/>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71"/>
@@ -2481,11 +2602,11 @@
         <f>F71*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" s="1" t="str">
         <f>IF(OR(F71="",E71="",H71=""), "", (F71*VLOOKUP(E71, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H71)</f>
         <v/>
       </c>
-      <c r="K71"/>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72"/>
@@ -2496,11 +2617,11 @@
         <f>F72*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" s="1" t="str">
         <f>IF(OR(F72="",E72="",H72=""), "", (F72*VLOOKUP(E72, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H72)</f>
         <v/>
       </c>
-      <c r="K72"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73"/>
@@ -2511,11 +2632,11 @@
         <f>F73*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" s="1" t="str">
         <f>IF(OR(F73="",E73="",H73=""), "", (F73*VLOOKUP(E73, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H73)</f>
         <v/>
       </c>
-      <c r="K73"/>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74"/>
@@ -2526,11 +2647,11 @@
         <f>F74*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" s="1" t="str">
         <f>IF(OR(F74="",E74="",H74=""), "", (F74*VLOOKUP(E74, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H74)</f>
         <v/>
       </c>
-      <c r="K74"/>
+      <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75"/>
@@ -2541,11 +2662,11 @@
         <f>F75*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" s="1" t="str">
         <f>IF(OR(F75="",E75="",H75=""), "", (F75*VLOOKUP(E75, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H75)</f>
         <v/>
       </c>
-      <c r="K75"/>
+      <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76"/>
@@ -2556,11 +2677,11 @@
         <f>F76*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" s="1" t="str">
         <f>IF(OR(F76="",E76="",H76=""), "", (F76*VLOOKUP(E76, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H76)</f>
         <v/>
       </c>
-      <c r="K76"/>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77"/>
@@ -2571,11 +2692,11 @@
         <f>F77*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" s="1" t="str">
         <f>IF(OR(F77="",E77="",H77=""), "", (F77*VLOOKUP(E77, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H77)</f>
         <v/>
       </c>
-      <c r="K77"/>
+      <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78"/>
@@ -2586,11 +2707,11 @@
         <f>F78*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J78" t="str">
+      <c r="J78" s="1" t="str">
         <f>IF(OR(F78="",E78="",H78=""), "", (F78*VLOOKUP(E78, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H78)</f>
         <v/>
       </c>
-      <c r="K78"/>
+      <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79"/>
@@ -2601,11 +2722,11 @@
         <f>F79*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" s="1" t="str">
         <f>IF(OR(F79="",E79="",H79=""), "", (F79*VLOOKUP(E79, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H79)</f>
         <v/>
       </c>
-      <c r="K79"/>
+      <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80"/>
@@ -2616,11 +2737,11 @@
         <f>F80*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" s="1" t="str">
         <f>IF(OR(F80="",E80="",H80=""), "", (F80*VLOOKUP(E80, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H80)</f>
         <v/>
       </c>
-      <c r="K80"/>
+      <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81"/>
@@ -2631,11 +2752,11 @@
         <f>F81*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" s="1" t="str">
         <f>IF(OR(F81="",E81="",H81=""), "", (F81*VLOOKUP(E81, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H81)</f>
         <v/>
       </c>
-      <c r="K81"/>
+      <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82"/>
@@ -2646,11 +2767,11 @@
         <f>F82*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" s="1" t="str">
         <f>IF(OR(F82="",E82="",H82=""), "", (F82*VLOOKUP(E82, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H82)</f>
         <v/>
       </c>
-      <c r="K82"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83"/>
@@ -2661,11 +2782,11 @@
         <f>F83*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" s="1" t="str">
         <f>IF(OR(F83="",E83="",H83=""), "", (F83*VLOOKUP(E83, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H83)</f>
         <v/>
       </c>
-      <c r="K83"/>
+      <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84"/>
@@ -2676,11 +2797,11 @@
         <f>F84*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" s="1" t="str">
         <f>IF(OR(F84="",E84="",H84=""), "", (F84*VLOOKUP(E84, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H84)</f>
         <v/>
       </c>
-      <c r="K84"/>
+      <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85"/>
@@ -2691,11 +2812,11 @@
         <f>F85*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" s="1" t="str">
         <f>IF(OR(F85="",E85="",H85=""), "", (F85*VLOOKUP(E85, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H85)</f>
         <v/>
       </c>
-      <c r="K85"/>
+      <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86"/>
@@ -2706,11 +2827,11 @@
         <f>F86*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" s="1" t="str">
         <f>IF(OR(F86="",E86="",H86=""), "", (F86*VLOOKUP(E86, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H86)</f>
         <v/>
       </c>
-      <c r="K86"/>
+      <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87"/>
@@ -2721,11 +2842,11 @@
         <f>F87*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" s="1" t="str">
         <f>IF(OR(F87="",E87="",H87=""), "", (F87*VLOOKUP(E87, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H87)</f>
         <v/>
       </c>
-      <c r="K87"/>
+      <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88"/>
@@ -2736,11 +2857,11 @@
         <f>F88*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" s="1" t="str">
         <f>IF(OR(F88="",E88="",H88=""), "", (F88*VLOOKUP(E88, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H88)</f>
         <v/>
       </c>
-      <c r="K88"/>
+      <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89"/>
@@ -2751,11 +2872,11 @@
         <f>F89*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J89" t="str">
+      <c r="J89" s="1" t="str">
         <f>IF(OR(F89="",E89="",H89=""), "", (F89*VLOOKUP(E89, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H89)</f>
         <v/>
       </c>
-      <c r="K89"/>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90"/>
@@ -2766,11 +2887,11 @@
         <f>F90*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" s="1" t="str">
         <f>IF(OR(F90="",E90="",H90=""), "", (F90*VLOOKUP(E90, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H90)</f>
         <v/>
       </c>
-      <c r="K90"/>
+      <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91"/>
@@ -2781,11 +2902,11 @@
         <f>F91*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J91" t="str">
+      <c r="J91" s="1" t="str">
         <f>IF(OR(F91="",E91="",H91=""), "", (F91*VLOOKUP(E91, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H91)</f>
         <v/>
       </c>
-      <c r="K91"/>
+      <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92"/>
@@ -2796,11 +2917,11 @@
         <f>F92*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" s="1" t="str">
         <f>IF(OR(F92="",E92="",H92=""), "", (F92*VLOOKUP(E92, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H92)</f>
         <v/>
       </c>
-      <c r="K92"/>
+      <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93"/>
@@ -2811,11 +2932,11 @@
         <f>F93*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" s="1" t="str">
         <f>IF(OR(F93="",E93="",H93=""), "", (F93*VLOOKUP(E93, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H93)</f>
         <v/>
       </c>
-      <c r="K93"/>
+      <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94"/>
@@ -2826,11 +2947,11 @@
         <f>F94*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J94" t="str">
+      <c r="J94" s="1" t="str">
         <f>IF(OR(F94="",E94="",H94=""), "", (F94*VLOOKUP(E94, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H94)</f>
         <v/>
       </c>
-      <c r="K94"/>
+      <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95"/>
@@ -2841,11 +2962,11 @@
         <f>F95*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J95" t="str">
+      <c r="J95" s="1" t="str">
         <f>IF(OR(F95="",E95="",H95=""), "", (F95*VLOOKUP(E95, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H95)</f>
         <v/>
       </c>
-      <c r="K95"/>
+      <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96"/>
@@ -2856,11 +2977,11 @@
         <f>F96*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J96" t="str">
+      <c r="J96" s="1" t="str">
         <f>IF(OR(F96="",E96="",H96=""), "", (F96*VLOOKUP(E96, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H96)</f>
         <v/>
       </c>
-      <c r="K96"/>
+      <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97"/>
@@ -2871,11 +2992,11 @@
         <f>F97*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J97" t="str">
+      <c r="J97" s="1" t="str">
         <f>IF(OR(F97="",E97="",H97=""), "", (F97*VLOOKUP(E97, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H97)</f>
         <v/>
       </c>
-      <c r="K97"/>
+      <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98"/>
@@ -2886,11 +3007,11 @@
         <f>F98*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J98" t="str">
+      <c r="J98" s="1" t="str">
         <f>IF(OR(F98="",E98="",H98=""), "", (F98*VLOOKUP(E98, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H98)</f>
         <v/>
       </c>
-      <c r="K98"/>
+      <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99"/>
@@ -2901,11 +3022,11 @@
         <f>F99*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" s="1" t="str">
         <f>IF(OR(F99="",E99="",H99=""), "", (F99*VLOOKUP(E99, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H99)</f>
         <v/>
       </c>
-      <c r="K99"/>
+      <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100"/>
@@ -2916,13 +3037,35 @@
         <f>F100*SUM('Konfigurace režií na úkolech'!$E$2:$E$10)/100</f>
         <v>0</v>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" s="1" t="str">
         <f>IF(OR(F100="",E100="",H100=""), "", (F100*VLOOKUP(E100, 'Konfigurace komplexity'!$A$2:$B$5, 2, FALSE))+H100)</f>
         <v/>
       </c>
-      <c r="K100"/>
+      <c r="K100" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E100">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="standardní">
+      <formula>NOT(ISERROR(SEARCH("standardní",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="vysoká">
+      <formula>NOT(ISERROR(SEARCH("vysoká",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="velmi komplexní">
+      <formula>NOT(ISERROR(SEARCH("velmi komplexní",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="riziková">
+      <formula>NOT(ISERROR(SEARCH("riziková",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E2:E100">
+      <formula1>"standardní,vysoká,velmi komplexní,riziková"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId_hyperlink_1"/>
+  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -2958,16 +3101,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3103,10 +3246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
